--- a/rhla_analysis/rhla1_3_exp_result/k3.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k3.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02110232570361128</v>
+        <v>0.02110232570361126</v>
       </c>
       <c r="B2" t="n">
         <v>0.2556492402976812</v>
@@ -466,12 +466,12 @@
         <v>0.08226768968456948</v>
       </c>
       <c r="D2" t="n">
-        <v>12.11474241694276</v>
+        <v>12.11474241694277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01177276545216823</v>
+        <v>0.0117727654521682</v>
       </c>
       <c r="B3" t="n">
         <v>0.2626441273649135</v>
@@ -480,12 +480,12 @@
         <v>0.09207161125319693</v>
       </c>
       <c r="D3" t="n">
-        <v>22.30946742564564</v>
+        <v>22.30946742564569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01826396013819723</v>
+        <v>0.01826396013819707</v>
       </c>
       <c r="B4" t="n">
         <v>0.2630663403002501</v>
@@ -494,12 +494,12 @@
         <v>0.1018755328218244</v>
       </c>
       <c r="D4" t="n">
-        <v>14.40357613079068</v>
+        <v>14.40357613079081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006813183493255117</v>
+        <v>0.006813183493255171</v>
       </c>
       <c r="B5" t="n">
         <v>0.2547886081917565</v>
@@ -508,12 +508,12 @@
         <v>0.09718670076726342</v>
       </c>
       <c r="D5" t="n">
-        <v>37.39641071519517</v>
+        <v>37.39641071519488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01312544686544392</v>
+        <v>0.01312544686544381</v>
       </c>
       <c r="B6" t="n">
         <v>0.2653696187808772</v>
@@ -522,7 +522,7 @@
         <v>0.08780903665814152</v>
       </c>
       <c r="D6" t="n">
-        <v>20.21794926308606</v>
+        <v>20.21794926308623</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>0.08780903665814152</v>
       </c>
       <c r="D7" t="n">
-        <v>10.88633848305151</v>
+        <v>10.88633848305152</v>
       </c>
     </row>
     <row r="8">
@@ -564,12 +564,12 @@
         <v>0.07544757033248081</v>
       </c>
       <c r="D9" t="n">
-        <v>21.82915346978831</v>
+        <v>21.8291534697883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02299997585192688</v>
+        <v>0.02299997585192674</v>
       </c>
       <c r="B10" t="n">
         <v>0.3158599038212185</v>
@@ -578,21 +578,21 @@
         <v>0.0711849957374254</v>
       </c>
       <c r="D10" t="n">
-        <v>13.7330537151306</v>
+        <v>13.73305371513068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01942120062579519</v>
+        <v>0.01942120062579509</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2991819022083406</v>
+        <v>0.2991819022083405</v>
       </c>
       <c r="C11" t="n">
         <v>0.07161125319693094</v>
       </c>
       <c r="D11" t="n">
-        <v>15.40491280497705</v>
+        <v>15.40491280497712</v>
       </c>
     </row>
   </sheetData>
